--- a/BRASIL/Aniver.xlsx
+++ b/BRASIL/Aniver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Guerbet\Python\Aniver\BRASIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3832FE-823C-4D3A-AD7C-E23EDF51DC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDDC418-8E0E-489F-A6A6-24ADAD5B31B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1545" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -576,13 +576,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="2">
-        <v>33858</v>
+        <v>33885</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>41893</v>
+        <v>41920</v>
       </c>
     </row>
   </sheetData>
@@ -630,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0C10D1-A90C-4EEA-86EB-93299046FF0C}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -764,7 +764,7 @@
         <v>34</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -856,26 +856,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6b65266d-2c3b-4fb5-a1ab-b7b2c8817627" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18707c58-15b6-454d-9464-16889ea1ffd2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100467398972A9A4C45B223BC3D8EDF4B86" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e9046a62f99eb1e39e1abe19e0aa5aa7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="18707c58-15b6-454d-9464-16889ea1ffd2" xmlns:ns3="6b65266d-2c3b-4fb5-a1ab-b7b2c8817627" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c4594aa47d40bb6103decaff466d1cd" ns2:_="" ns3:_="">
     <xsd:import namespace="18707c58-15b6-454d-9464-16889ea1ffd2"/>
@@ -1124,26 +1104,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6b65266d-2c3b-4fb5-a1ab-b7b2c8817627" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18707c58-15b6-454d-9464-16889ea1ffd2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D67942E-E7A3-4F16-AFF0-2E7759E47045}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA1A333D-BEE1-4F78-8AA3-28EEE22E4DA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6b65266d-2c3b-4fb5-a1ab-b7b2c8817627"/>
-    <ds:schemaRef ds:uri="18707c58-15b6-454d-9464-16889ea1ffd2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAFA205D-344E-4951-A039-B7F510F9B590}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1160,4 +1141,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA1A333D-BEE1-4F78-8AA3-28EEE22E4DA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6b65266d-2c3b-4fb5-a1ab-b7b2c8817627"/>
+    <ds:schemaRef ds:uri="18707c58-15b6-454d-9464-16889ea1ffd2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D67942E-E7A3-4F16-AFF0-2E7759E47045}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BRASIL/Aniver.xlsx
+++ b/BRASIL/Aniver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Guerbet\Python\Aniver\BRASIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDDC418-8E0E-489F-A6A6-24ADAD5B31B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB8EE38-F8FE-4FC5-8875-F2BC9B834B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -582,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>41920</v>
+        <v>38268</v>
       </c>
     </row>
   </sheetData>
@@ -630,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0C10D1-A90C-4EEA-86EB-93299046FF0C}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -856,6 +856,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6b65266d-2c3b-4fb5-a1ab-b7b2c8817627" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18707c58-15b6-454d-9464-16889ea1ffd2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100467398972A9A4C45B223BC3D8EDF4B86" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e9046a62f99eb1e39e1abe19e0aa5aa7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="18707c58-15b6-454d-9464-16889ea1ffd2" xmlns:ns3="6b65266d-2c3b-4fb5-a1ab-b7b2c8817627" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c4594aa47d40bb6103decaff466d1cd" ns2:_="" ns3:_="">
     <xsd:import namespace="18707c58-15b6-454d-9464-16889ea1ffd2"/>
@@ -1104,27 +1124,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6b65266d-2c3b-4fb5-a1ab-b7b2c8817627" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18707c58-15b6-454d-9464-16889ea1ffd2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D67942E-E7A3-4F16-AFF0-2E7759E47045}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA1A333D-BEE1-4F78-8AA3-28EEE22E4DA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6b65266d-2c3b-4fb5-a1ab-b7b2c8817627"/>
+    <ds:schemaRef ds:uri="18707c58-15b6-454d-9464-16889ea1ffd2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAFA205D-344E-4951-A039-B7F510F9B590}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1141,23 +1160,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA1A333D-BEE1-4F78-8AA3-28EEE22E4DA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6b65266d-2c3b-4fb5-a1ab-b7b2c8817627"/>
-    <ds:schemaRef ds:uri="18707c58-15b6-454d-9464-16889ea1ffd2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D67942E-E7A3-4F16-AFF0-2E7759E47045}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>